--- a/Brothers_AMS/TemplateFiles/EmployeeStatus.xlsx
+++ b/Brothers_AMS/TemplateFiles/EmployeeStatus.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>EmployeeNumber</t>
   </si>
@@ -33,13 +34,53 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Sample Data</t>
+  </si>
+  <si>
+    <t>BIPH2014-00725</t>
+  </si>
+  <si>
+    <t>Rachel, Lozano</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System provide the following info:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+EmployeeNo
+EmployeeName
+Status
+Simply update or modify the Status column to
+Active or Inactive</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +92,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -105,6 +154,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +443,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,5 +525,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Instructions!$Z:$Z</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Brothers_AMS/TemplateFiles/EmployeeStatus.xlsx
+++ b/Brothers_AMS/TemplateFiles/EmployeeStatus.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\Projects2\Brothers_AMSSourceCodes\Brothers_AMS\Brothers_AMS\TemplateFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\AMS\Brothers_AMS\Brothers_AMS\TemplateFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8VGOOTV3eAT9sB1urXafH25lz35IftJipjauCWfmYUkpoQEyiKEHJGbQ0an/dJKLonS+Oij68+8xVcD/JiaI2A==" workbookSaltValue="vLffh7gEvH0+1d2DQEa2Lg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="AMSSheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -105,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -160,6 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -167,8 +175,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9393"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -457,10 +478,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -490,6 +511,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="H2QBT9bHSBRXWo7uxYTnt4nce3F7ew2KGHiQ0xjvfjU1TvIQkj0DqqylgYcB5gZmJgCr5VpUtwhxM4fBiUXIjA==" saltValue="S9YXc6KhmupS0k1nlDnp+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -502,13 +524,13 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -524,7 +546,17 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zkJUCaQ71OC4dvLobXMm1CPximcmq4NTbmajfkagpr9Z+NEErPPdlrpmJ2u/k2qL0MRA1JkHOYiqgqt/cmtN2w==" saltValue="mBTGBbU4XMUc1gOMOZGo4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="C1:C1048576" name="Range1"/>
+  </protectedRanges>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Brothers_AMS/TemplateFiles/EmployeeStatus.xlsx
+++ b/Brothers_AMS/TemplateFiles/EmployeeStatus.xlsx
@@ -10,23 +10,32 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8VGOOTV3eAT9sB1urXafH25lz35IftJipjauCWfmYUkpoQEyiKEHJGbQ0an/dJKLonS+Oij68+8xVcD/JiaI2A==" workbookSaltValue="vLffh7gEvH0+1d2DQEa2Lg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="AMSSheet" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMSSheet!$B$1:$D$13737</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>EmployeeNumber</t>
   </si>
@@ -37,16 +46,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Sample Data</t>
-  </si>
-  <si>
     <t>BIPH2014-00725</t>
   </si>
   <si>
+    <t>Active</t>
+  </si>
+  <si>
     <t>Rachel, Lozano</t>
   </si>
   <si>
-    <t>Active</t>
+    <t>Sample Input:</t>
   </si>
   <si>
     <r>
@@ -58,7 +67,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>System provide the following info:</t>
+      <t>System Generated:</t>
     </r>
     <r>
       <rPr>
@@ -72,16 +81,41 @@
 EmployeeNo
 EmployeeName
 Status
-Simply update or modify the Status column to
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manual input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Update or modify the Status column to
 Active or Inactive</t>
     </r>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +139,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,22 +201,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,7 +520,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,43 +530,44 @@
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H2QBT9bHSBRXWo7uxYTnt4nce3F7ew2KGHiQ0xjvfjU1TvIQkj0DqqylgYcB5gZmJgCr5VpUtwhxM4fBiUXIjA==" saltValue="S9YXc6KhmupS0k1nlDnp+A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+XdqaVkFjm0rTT0+PayRLD14v5RKFBdD5tkjtnLItxPkT36fqzne6fCElwZYMNHyK2VHt5CMLjT+7/YTBc3VCw==" saltValue="iqZx1ATkxGxBUo0bhyksog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,38 +575,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zkJUCaQ71OC4dvLobXMm1CPximcmq4NTbmajfkagpr9Z+NEErPPdlrpmJ2u/k2qL0MRA1JkHOYiqgqt/cmtN2w==" saltValue="mBTGBbU4XMUc1gOMOZGo4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="08e/UUPUWEh/qZlVx2iobDfk4Je71EkKPhg0Aajq6dZPpQd4nIicnD2DRJB0N9SfM0KxuLpKDMrzzjhp2UVR/g==" saltValue="0vh8cICJFpXEq6v2443c4A==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <protectedRanges>
-    <protectedRange sqref="C1:C1048576" name="Range1"/>
+    <protectedRange sqref="D1:D1048576" name="Range1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="C2:C1048576">
+  <autoFilter ref="B1:D13737"/>
+  <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C2))=0</formula>
+      <formula>LEN(TRIM(D2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -564,7 +626,7 @@
           <x14:formula1>
             <xm:f>Instructions!$Z:$Z</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Brothers_AMS/TemplateFiles/EmployeeStatus.xlsx
+++ b/Brothers_AMS/TemplateFiles/EmployeeStatus.xlsx
@@ -17,7 +17,7 @@
     <sheet name="AMSSheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMSSheet!$B$1:$D$13737</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AMSSheet!$B$1:$E$13737</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>EmployeeNumber</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>HRStatus</t>
   </si>
 </sst>
 </file>
@@ -575,11 +578,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,12 +590,13 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -602,19 +606,22 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="08e/UUPUWEh/qZlVx2iobDfk4Je71EkKPhg0Aajq6dZPpQd4nIicnD2DRJB0N9SfM0KxuLpKDMrzzjhp2UVR/g==" saltValue="0vh8cICJFpXEq6v2443c4A==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qm2Uhtmj4LH+DLdFgYPz4NB0xIgofIUIdtFFMYAi7TxYx+Jo7mdQu2qeUpEE9EKmAgzRPWxZmYNOMbyMNDalSg==" saltValue="qmedXX62nQEbKouzc/6Tyg==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <protectedRanges>
-    <protectedRange sqref="D1:D1048576" name="Range1"/>
+    <protectedRange sqref="E1:E1048576" name="Range1"/>
   </protectedRanges>
-  <autoFilter ref="B1:D13737"/>
-  <conditionalFormatting sqref="D2:D1048576">
+  <autoFilter ref="B1:E13737"/>
+  <conditionalFormatting sqref="E2:E1048576">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D2))=0</formula>
+      <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,7 +633,7 @@
           <x14:formula1>
             <xm:f>Instructions!$Z:$Z</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
